--- a/DEMO/org.openl.rules.demo/data/openl-demo/design-repository/DESIGN/rules/Example 2 - Corporate Rating/Corporate Rating.xlsx
+++ b/DEMO/org.openl.rules.demo/data/openl-demo/design-repository/DESIGN/rules/Example 2 - Corporate Rating/Corporate Rating.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C97FD-28FC-44F3-ACDE-914C441BBD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" tabRatio="860"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Algorithm" sheetId="4" r:id="rId1"/>
@@ -864,42 +865,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FinancialRatioWeight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (FinancialRatio financialRatio) </t>
-    </r>
-  </si>
-  <si>
     <t>QuickRatioWeight</t>
   </si>
   <si>
@@ -1035,42 +1000,6 @@
     <t>Industry Score</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IndustryScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Industry industry) </t>
-    </r>
-  </si>
-  <si>
     <t>Monthly Accounts Turnover</t>
   </si>
   <si>
@@ -1128,84 +1057,12 @@
     <t>20000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ReputationScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Reputation reputationOfTheCorporateOrAssociatedPerson) </t>
-    </r>
-  </si>
-  <si>
     <t>Is Any Info Involved Terrorism?</t>
   </si>
   <si>
     <t>Reputation of the Corporate or Associated Person</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TerrorismScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Boolean isAnyInfoInvolvedTerrorism) </t>
-    </r>
-  </si>
-  <si>
     <t>Reputation Score</t>
   </si>
   <si>
@@ -1257,42 +1114,6 @@
     <t>//is Owner or Founder of Both This and Another Company with 25% shares</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OwnershipScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Ownership ownership) </t>
-    </r>
-  </si>
-  <si>
     <t>Ownership Score</t>
   </si>
   <si>
@@ -1365,42 +1186,6 @@
     <t>IncreaseRiskOfProfileScore</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ColumnMatch &lt;WEIGHTED&gt; DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IncreaseRiskOfProfileScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (QualityIndicators qualityIndicators) </t>
-    </r>
-  </si>
-  <si>
     <t>RETURN</t>
   </si>
   <si>
@@ -1440,42 +1225,6 @@
     <t>Risk of Operations</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OperationsOfMainIndustryScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Boolean areAllFinancialOperationsOfMainIndustry) </t>
-    </r>
-  </si>
-  <si>
     <t>are Operations of Main Industry?</t>
   </si>
   <si>
@@ -1488,78 +1237,6 @@
     <t>Contractors Score</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ContractorsScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Reputation reputationOfRegularContractors) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SuspiciousOperationsScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Occurrence isAnySuspiciousFinancialTransaction) </t>
-    </r>
-  </si>
-  <si>
     <t>is Any Suspicious Financial Transaction?</t>
   </si>
   <si>
@@ -1569,42 +1246,6 @@
     <t xml:space="preserve"> isAnySuspiciousFinancialTransaction</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ColumnMatch &lt;WEIGHTED&gt; DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IncreaseRiskOfOperationsScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (QualityIndicators qualityIndicators) </t>
-    </r>
-  </si>
-  <si>
     <t>Increasing Risk of Operations Factors</t>
   </si>
   <si>
@@ -1623,42 +1264,6 @@
     <t>Increase Risk of Operations Score</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DecreaseRiskOfOperationsScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Boolean isAnySalaryFinOperation, Boolean isAnyCredits) </t>
-    </r>
-  </si>
-  <si>
     <t>is Any Salary Financial Operation?</t>
   </si>
   <si>
@@ -1719,126 +1324,18 @@
     <t>Risk of Geography</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RegistrationScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Boolean isRegistrationInSuspiciousArea) </t>
-    </r>
-  </si>
-  <si>
     <t>is Registration in Suspicious Area?</t>
   </si>
   <si>
     <t>Registration Score</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RegistrationOfAssociatedPersonScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Boolean isRegistrationOfAssociatedPersonInSuspiciousArea) </t>
-    </r>
-  </si>
-  <si>
     <t>is Suspicious Registration of Any Associated Person?</t>
   </si>
   <si>
     <t>Registration of Associated Person Score</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GeographyOfBusinessScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Boolean isGeographyOfBusinessInSuspiciousArea) </t>
-    </r>
-  </si>
-  <si>
     <t>is Geography of Business in Suspicious Area?</t>
   </si>
   <si>
@@ -1897,42 +1394,6 @@
   </si>
   <si>
     <t>Total Risk</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules String </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RatingDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (DoubleValue corporateRating) </t>
-    </r>
   </si>
   <si>
     <t>= financialRating</t>
@@ -3000,6 +2461,107 @@
   </si>
   <si>
     <r>
+      <t>""T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est Data</t>
+    </r>
+  </si>
+  <si>
+    <t>Test CorporateRatingCalculation CorporateRatingCalculationTest</t>
+  </si>
+  <si>
+    <t>Test FinancialRatingCalculation FinancialRatingCalculationTest</t>
+  </si>
+  <si>
+    <t>Test RiskOfProfile RiskOfProfileTest</t>
+  </si>
+  <si>
+    <t>Test RiskOfOperations RiskOfOperationsTest</t>
+  </si>
+  <si>
+    <t>Test RiskOfGeography RiskOfGeographyTest</t>
+  </si>
+  <si>
+    <t>Test MonthlyAccountsTurnoverScore MonthlyAccountsTurnoverScoreTest</t>
+  </si>
+  <si>
+    <t>Test IncreaseRiskOfProfileScore IncreaseRiskOfProfileScoreTest (qualityIndicators)</t>
+  </si>
+  <si>
+    <t>Test SuspiciousOperationsScore SuspiciousOperationsScoreTest</t>
+  </si>
+  <si>
+    <t>Test IncreaseRiskOfOperationsScore IncreaseRiskOOperationsScoreTest (qualityIndicators)</t>
+  </si>
+  <si>
+    <t>CheckCurrentFinancialData</t>
+  </si>
+  <si>
+    <t>FinancialRatingCalculation</t>
+  </si>
+  <si>
+    <t>= $FinancialRatingCalculation.$Value$FinancialRating</t>
+  </si>
+  <si>
+    <t>RiskOfProfile</t>
+  </si>
+  <si>
+    <t>RiskOfOperations</t>
+  </si>
+  <si>
+    <t>RiskOfGeography</t>
+  </si>
+  <si>
+    <t>RiskOfWorkWithCorporate</t>
+  </si>
+  <si>
+    <t>RatingDescription</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datatype</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RiskGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -3008,7 +2570,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules IntValue </t>
+      <t xml:space="preserve">SimpleRules RiskGroup </t>
     </r>
     <r>
       <rPr>
@@ -3020,7 +2582,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CashLiquidityRatioGroup</t>
+      <t>RiskOfWorkWithCorporate</t>
     </r>
     <r>
       <rPr>
@@ -3031,8 +2593,11 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue cashLiquidityRatio) </t>
-    </r>
+      <t xml:space="preserve"> (RiskGroup riskOfProfile, RiskGroup riskOfOperations, RiskGroup riskOfGeography) </t>
+    </r>
+  </si>
+  <si>
+    <t>RiskGroup</t>
   </si>
   <si>
     <r>
@@ -3044,7 +2609,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules IntValue </t>
+      <t xml:space="preserve">SimpleRules Integer </t>
     </r>
     <r>
       <rPr>
@@ -3056,7 +2621,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>QuickRatioGroup</t>
+      <t>CashLiquidityRatioGroup</t>
     </r>
     <r>
       <rPr>
@@ -3067,7 +2632,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue quickRatio) </t>
+      <t xml:space="preserve"> (Double cashLiquidityRatio) </t>
     </r>
   </si>
   <si>
@@ -3080,7 +2645,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules IntValue </t>
+      <t xml:space="preserve">SimpleRules Integer </t>
     </r>
     <r>
       <rPr>
@@ -3092,7 +2657,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CurrentRatioGroup</t>
+      <t>QuickRatioGroup</t>
     </r>
     <r>
       <rPr>
@@ -3103,7 +2668,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue currentRatio) </t>
+      <t xml:space="preserve"> (Double quickRatio) </t>
     </r>
   </si>
   <si>
@@ -3116,7 +2681,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules IntValue </t>
+      <t xml:space="preserve">SimpleRules Integer </t>
     </r>
     <r>
       <rPr>
@@ -3128,7 +2693,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>OperatingProfitMarginGroup</t>
+      <t>CurrentRatioGroup</t>
     </r>
     <r>
       <rPr>
@@ -3139,7 +2704,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue operatingProfitMargin) </t>
+      <t xml:space="preserve"> (Double currentRatio) </t>
     </r>
   </si>
   <si>
@@ -3152,7 +2717,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules IntValue </t>
+      <t xml:space="preserve">SimpleRules Integer </t>
     </r>
     <r>
       <rPr>
@@ -3164,7 +2729,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FinancialRating</t>
+      <t>EquityToCurrentAssetsRatioGroup</t>
     </r>
     <r>
       <rPr>
@@ -3175,7 +2740,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue financialScore) </t>
+      <t xml:space="preserve"> (Industry industry, Double equityToCurrentAssetsRatio) </t>
     </r>
   </si>
   <si>
@@ -3188,7 +2753,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t xml:space="preserve">SimpleRules Integer </t>
     </r>
     <r>
       <rPr>
@@ -3200,7 +2765,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MonthlyAccountsTurnoverScore</t>
+      <t>OperatingProfitMarginGroup</t>
     </r>
     <r>
       <rPr>
@@ -3211,76 +2776,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Integer numberOfEmployees, Double monthlyAccountsTurnover, Double monthlyCashTurnover) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>""T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>est Data</t>
-    </r>
-  </si>
-  <si>
-    <t>Test CorporateRatingCalculation CorporateRatingCalculationTest</t>
-  </si>
-  <si>
-    <t>Test FinancialRatingCalculation FinancialRatingCalculationTest</t>
-  </si>
-  <si>
-    <t>Test RiskOfProfile RiskOfProfileTest</t>
-  </si>
-  <si>
-    <t>Test RiskOfOperations RiskOfOperationsTest</t>
-  </si>
-  <si>
-    <t>Test RiskOfGeography RiskOfGeographyTest</t>
-  </si>
-  <si>
-    <t>Test MonthlyAccountsTurnoverScore MonthlyAccountsTurnoverScoreTest</t>
-  </si>
-  <si>
-    <t>Test IncreaseRiskOfProfileScore IncreaseRiskOfProfileScoreTest (qualityIndicators)</t>
-  </si>
-  <si>
-    <t>Test SuspiciousOperationsScore SuspiciousOperationsScoreTest</t>
-  </si>
-  <si>
-    <t>Test IncreaseRiskOfOperationsScore IncreaseRiskOOperationsScoreTest (qualityIndicators)</t>
-  </si>
-  <si>
-    <t>CheckCurrentFinancialData</t>
-  </si>
-  <si>
-    <t>FinancialRatingCalculation</t>
-  </si>
-  <si>
-    <t>= $FinancialRatingCalculation.$Value$FinancialRating</t>
-  </si>
-  <si>
-    <t>RiskOfProfile</t>
-  </si>
-  <si>
-    <t>RiskOfOperations</t>
-  </si>
-  <si>
-    <t>RiskOfGeography</t>
-  </si>
-  <si>
-    <t>RiskOfWorkWithCorporate</t>
-  </si>
-  <si>
-    <t>RatingDescription</t>
+      <t xml:space="preserve"> (Double operatingProfitMargin) </t>
+    </r>
   </si>
   <si>
     <r>
@@ -3292,7 +2789,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules IntValue </t>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -3304,7 +2801,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EquityToCurrentAssetsRatioGroup</t>
+      <t>FinancialRatioWeight</t>
     </r>
     <r>
       <rPr>
@@ -3315,40 +2812,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Industry industry, DoubleValue equityToCurrentAssetsRatio) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Datatype</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RiskGroup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
+      <t xml:space="preserve"> (FinancialRatio financialRatio) </t>
     </r>
   </si>
   <si>
@@ -3361,7 +2825,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules RiskGroup </t>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -3373,7 +2837,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RiskGroup</t>
+      <t>IndustryScore</t>
     </r>
     <r>
       <rPr>
@@ -3384,7 +2848,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue riskScore) </t>
+      <t xml:space="preserve"> (Industry industry) </t>
     </r>
   </si>
   <si>
@@ -3397,7 +2861,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules RiskGroup </t>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -3409,7 +2873,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RiskOfWorkWithCorporate</t>
+      <t>MonthlyAccountsTurnoverScore</t>
     </r>
     <r>
       <rPr>
@@ -3420,11 +2884,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (RiskGroup riskOfProfile, RiskGroup riskOfOperations, RiskGroup riskOfGeography) </t>
-    </r>
-  </si>
-  <si>
-    <t>RiskGroup</t>
+      <t xml:space="preserve"> (Integer numberOfEmployees, Double monthlyAccountsTurnover, Double monthlyCashTurnover) </t>
+    </r>
   </si>
   <si>
     <r>
@@ -3436,7 +2897,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Rules DoubleValue </t>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -3448,6 +2909,510 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>TerrorismScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Boolean isAnyInfoInvolvedTerrorism) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReputationScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Reputation reputationOfTheCorporateOrAssociatedPerson) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ColumnMatch &lt;WEIGHTED&gt; Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IncreaseRiskOfProfileScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (QualityIndicators qualityIndicators) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OwnershipScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ownership ownership) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OperationsOfMainIndustryScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Boolean areAllFinancialOperationsOfMainIndustry) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ContractorsScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Reputation reputationOfRegularContractors) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SuspiciousOperationsScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Occurrence isAnySuspiciousFinancialTransaction) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ColumnMatch &lt;WEIGHTED&gt; Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IncreaseRiskOfOperationsScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (QualityIndicators qualityIndicators) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DecreaseRiskOfOperationsScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Boolean isAnySalaryFinOperation, Boolean isAnyCredits) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Integer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FinancialRating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Double financialScore) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RegistrationScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Boolean isRegistrationInSuspiciousArea) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RegistrationOfAssociatedPersonScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Boolean isRegistrationOfAssociatedPersonInSuspiciousArea) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GeographyOfBusinessScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Boolean isGeographyOfBusinessInSuspiciousArea) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules RiskGroup </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RiskGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Double riskScore) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CorporateRating</t>
     </r>
     <r>
@@ -3459,14 +3424,50 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue financialRating, RiskGroup riskOfWorkWithCorporate)</t>
+      <t xml:space="preserve"> (Double financialRating, RiskGroup riskOfWorkWithCorporate)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RatingDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Double corporateRating) </t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4232,6 +4233,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4264,9 +4268,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4304,7 +4305,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4671,7 +4678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4679,22 +4686,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="56.21875" customWidth="1"/>
+    <col min="5" max="5" width="40.90625" customWidth="1"/>
+    <col min="6" max="6" width="56.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4702,17 +4709,17 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="2:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="133" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D6" s="133"/>
       <c r="E6" s="133"/>
       <c r="F6" s="133"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4720,17 +4727,17 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B8" s="12"/>
       <c r="C8" s="129" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="129"/>
       <c r="E8" s="129"/>
       <c r="F8" s="129"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="2:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="57" t="s">
         <v>62</v>
@@ -4739,12 +4746,12 @@
         <v>63</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="F9" s="123"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="124" t="s">
         <v>64</v>
@@ -4758,10 +4765,10 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="123" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="D11" s="123"/>
       <c r="E11" s="3"/>
@@ -4770,120 +4777,120 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="108" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="132" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="D12" s="132"/>
       <c r="E12" s="115"/>
       <c r="F12" s="47" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="27.6" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="132" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="132"/>
       <c r="E13" s="115" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="132" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="D14" s="132"/>
       <c r="E14" s="134" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="132" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="D15" s="132"/>
       <c r="E15" s="134"/>
       <c r="F15" s="47" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="132" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="D16" s="132"/>
       <c r="E16" s="134"/>
       <c r="F16" s="47" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="28.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="12"/>
       <c r="C17" s="132" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="D17" s="132"/>
       <c r="E17" s="75" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="108" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="12"/>
       <c r="C18" s="126" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D18" s="126"/>
       <c r="E18" s="3" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="108" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="128" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="D19" s="128"/>
       <c r="E19" s="107"/>
       <c r="F19" s="59" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4891,7 +4898,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4899,20 +4906,20 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B22" s="12"/>
       <c r="C22" s="129" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D22" s="129"/>
       <c r="E22" s="129"/>
       <c r="F22" s="129"/>
       <c r="G22" s="12"/>
       <c r="H22" s="108" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="C23" s="57" t="s">
         <v>62</v>
@@ -4921,12 +4928,12 @@
         <v>63</v>
       </c>
       <c r="E23" s="123" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F23" s="123"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="12"/>
       <c r="C24" s="124" t="s">
         <v>64</v>
@@ -4940,7 +4947,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="C25" s="125" t="s">
         <v>85</v>
@@ -4950,11 +4957,11 @@
         <v>117</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="125" t="s">
         <v>113</v>
@@ -4968,7 +4975,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="C27" s="125" t="s">
         <v>178</v>
@@ -4982,7 +4989,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="C28" s="127" t="s">
         <v>177</v>
@@ -4992,11 +4999,11 @@
         <v>176</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="125" t="s">
         <v>86</v>
@@ -5006,11 +5013,11 @@
         <v>126</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="C30" s="125" t="s">
         <v>124</v>
@@ -5024,35 +5031,35 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="C31" s="125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" s="125"/>
       <c r="E31" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="12"/>
       <c r="C32" s="127" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" s="127"/>
       <c r="E32" s="58" t="s">
         <v>176</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
       <c r="C33" s="125" t="s">
         <v>87</v>
@@ -5062,11 +5069,11 @@
         <v>135</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="12"/>
       <c r="C34" s="125" t="s">
         <v>133</v>
@@ -5080,35 +5087,35 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
       <c r="C35" s="125" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D35" s="125"/>
       <c r="E35" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36" s="127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="127"/>
       <c r="E36" s="58" t="s">
         <v>176</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="C37" s="125" t="s">
         <v>88</v>
@@ -5118,11 +5125,11 @@
         <v>148</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="C38" s="125" t="s">
         <v>141</v>
@@ -5132,39 +5139,39 @@
         <v>114</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39" s="125"/>
       <c r="E39" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="C40" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" s="127"/>
       <c r="E40" s="58" t="s">
         <v>176</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="C41" s="125" t="s">
         <v>89</v>
@@ -5174,11 +5181,11 @@
         <v>144</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="12"/>
       <c r="C42" s="125" t="s">
         <v>142</v>
@@ -5192,63 +5199,63 @@
       </c>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="12"/>
       <c r="C43" s="125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D43" s="125"/>
       <c r="E43" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="12"/>
       <c r="C44" s="127" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D44" s="127"/>
       <c r="E44" s="58" t="s">
         <v>176</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="2:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" ht="28.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="12"/>
       <c r="C45" s="125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D45" s="125"/>
       <c r="E45" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="68" t="s">
-        <v>202</v>
-      </c>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="12"/>
       <c r="C46" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D46" s="126"/>
       <c r="E46" s="73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F46" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
       <c r="C47" s="72"/>
       <c r="D47" s="12"/>
@@ -5256,7 +5263,7 @@
       <c r="F47" s="71"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5264,20 +5271,20 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="2:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B49" s="12"/>
       <c r="C49" s="129" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="D49" s="129"/>
       <c r="E49" s="129"/>
       <c r="F49" s="129"/>
       <c r="G49" s="12"/>
       <c r="H49" s="108" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="12"/>
       <c r="C50" s="57" t="s">
         <v>62</v>
@@ -5286,12 +5293,12 @@
         <v>63</v>
       </c>
       <c r="E50" s="123" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F50" s="123"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="12"/>
       <c r="C51" s="124" t="s">
         <v>64</v>
@@ -5305,189 +5312,189 @@
       </c>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="12"/>
       <c r="C52" s="123" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D52" s="123"/>
       <c r="E52" s="3" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="2:9" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="28.2" x14ac:dyDescent="0.35">
       <c r="B53" s="12"/>
       <c r="C53" s="125" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D53" s="125"/>
       <c r="E53" s="3" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="127" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D54" s="127"/>
       <c r="E54" s="58" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G54" s="12"/>
       <c r="I54" s="99"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="125" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D55" s="125"/>
       <c r="E55" s="3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="C56" s="127" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D56" s="127"/>
       <c r="E56" s="58" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G56" s="12"/>
       <c r="I56" s="99"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="28.2" x14ac:dyDescent="0.35">
       <c r="B57" s="12"/>
       <c r="C57" s="125" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D57" s="125"/>
       <c r="E57" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="12"/>
       <c r="C58" s="127" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D58" s="127"/>
       <c r="E58" s="58" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12"/>
       <c r="C59" s="131" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D59" s="131"/>
       <c r="E59" s="3" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="12"/>
       <c r="C60" s="125" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D60" s="125"/>
       <c r="E60" s="3" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="12"/>
       <c r="C61" s="127" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D61" s="127"/>
       <c r="E61" s="58" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="2:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" ht="56.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B62" s="12"/>
       <c r="C62" s="125" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D62" s="125"/>
       <c r="E62" s="116" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B63" s="12"/>
       <c r="C63" s="126" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="D63" s="126"/>
       <c r="E63" s="73" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F63" s="74" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="12"/>
       <c r="C64" s="130" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D64" s="130"/>
       <c r="E64" s="69"/>
       <c r="F64" s="70" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5495,7 +5502,7 @@
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -5503,20 +5510,20 @@
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="2:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B67" s="12"/>
       <c r="C67" s="129" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D67" s="129"/>
       <c r="E67" s="129"/>
       <c r="F67" s="129"/>
       <c r="G67" s="12"/>
       <c r="H67" s="108" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12"/>
       <c r="C68" s="57" t="s">
         <v>62</v>
@@ -5525,12 +5532,12 @@
         <v>63</v>
       </c>
       <c r="E68" s="123" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F68" s="123"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="12"/>
       <c r="C69" s="124" t="s">
         <v>64</v>
@@ -5544,173 +5551,173 @@
       </c>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="12"/>
       <c r="C70" s="123" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D70" s="123"/>
       <c r="E70" s="3" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="12"/>
       <c r="C71" s="127" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D71" s="127"/>
       <c r="E71" s="58" t="s">
         <v>173</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="12"/>
       <c r="C72" s="123" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D72" s="123"/>
       <c r="E72" s="3" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="12"/>
       <c r="C73" s="127" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D73" s="127"/>
       <c r="E73" s="58" t="s">
         <v>173</v>
       </c>
       <c r="F73" s="59" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="12"/>
       <c r="C74" s="125" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D74" s="125"/>
       <c r="E74" s="3" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="12"/>
       <c r="C75" s="127" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D75" s="127"/>
       <c r="E75" s="58" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F75" s="59" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="12"/>
       <c r="C76" s="131" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D76" s="131"/>
       <c r="E76" s="3" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="12"/>
       <c r="C77" s="125" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D77" s="125"/>
       <c r="E77" s="3" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="12"/>
       <c r="C78" s="127" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D78" s="127"/>
       <c r="E78" s="58" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F78" s="59" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="2:8" ht="55.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" ht="56.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="12"/>
       <c r="C79" s="125" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D79" s="125"/>
       <c r="E79" s="116" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F79" s="68" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B80" s="12"/>
       <c r="C80" s="126" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="D80" s="126"/>
       <c r="E80" s="73" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F80" s="74" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="12"/>
       <c r="C81" s="130" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D81" s="130"/>
       <c r="E81" s="69"/>
       <c r="F81" s="70" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -5718,7 +5725,7 @@
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -5726,20 +5733,20 @@
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="2:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B84" s="12"/>
       <c r="C84" s="129" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="D84" s="129"/>
       <c r="E84" s="129"/>
       <c r="F84" s="129"/>
       <c r="G84" s="12"/>
       <c r="H84" s="108" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="12"/>
       <c r="C85" s="57" t="s">
         <v>62</v>
@@ -5748,12 +5755,12 @@
         <v>63</v>
       </c>
       <c r="E85" s="123" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F85" s="123"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="12"/>
       <c r="C86" s="124" t="s">
         <v>64</v>
@@ -5767,131 +5774,131 @@
       </c>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" s="12"/>
       <c r="C87" s="123" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D87" s="123"/>
       <c r="E87" s="3" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="12"/>
       <c r="C88" s="127" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D88" s="127"/>
       <c r="E88" s="58" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F88" s="59" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="2:8" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" ht="28.2" x14ac:dyDescent="0.35">
       <c r="B89" s="12"/>
       <c r="C89" s="123" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D89" s="123"/>
       <c r="E89" s="3" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
       <c r="C90" s="127" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D90" s="127"/>
       <c r="E90" s="58" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="F90" s="59" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" s="12"/>
       <c r="C91" s="125" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D91" s="125"/>
       <c r="E91" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="12"/>
       <c r="C92" s="127" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D92" s="127"/>
       <c r="E92" s="58" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F92" s="59" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B93" s="12"/>
       <c r="C93" s="125" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D93" s="125"/>
       <c r="E93" s="116" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B94" s="12"/>
       <c r="C94" s="126" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="D94" s="126"/>
       <c r="E94" s="73" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F94" s="74" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" s="12"/>
       <c r="C95" s="130" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D95" s="130"/>
       <c r="E95" s="69"/>
       <c r="F95" s="70" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -5985,13 +5992,13 @@
     <mergeCell ref="C39:D39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H11" location="'Set NonZero Values'!A1" display="'Set NonZero Values'!A1"/>
-    <hyperlink ref="H17" location="'Risk Groups'!A1" display="'Risk Groups'!A1"/>
-    <hyperlink ref="H18" location="'Corporate Rating'!A1" display="'Corporate Rating'!A1"/>
-    <hyperlink ref="H22" location="'Financial Rating'!A1" display="'Financial Rating'!A1"/>
-    <hyperlink ref="H49" location="'Risk of Profile'!A1" display="'Risk of Profile'!A1"/>
-    <hyperlink ref="H67" location="'Risk of Operations'!A1" display="'Risk of Operations'!A1"/>
-    <hyperlink ref="H84" location="'Risk of Geography'!A1" display="'Risk of Geography'!A1"/>
+    <hyperlink ref="H11" location="'Set NonZero Values'!A1" display="'Set NonZero Values'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H17" location="'Risk Groups'!A1" display="'Risk Groups'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H18" location="'Corporate Rating'!A1" display="'Corporate Rating'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H22" location="'Financial Rating'!A1" display="'Financial Rating'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H49" location="'Risk of Profile'!A1" display="'Risk of Profile'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H67" location="'Risk of Operations'!A1" display="'Risk of Operations'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H84" location="'Risk of Geography'!A1" display="'Risk of Geography'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6000,61 +6007,63 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="57.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="57.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G1" s="108" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="49"/>
     </row>
-    <row r="4" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="12"/>
       <c r="D6" s="141" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E6" s="142"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C8" s="12"/>
       <c r="D8" s="135" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E8" s="136"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C9" s="12"/>
       <c r="D9" s="57" t="s">
         <v>115</v>
@@ -6064,83 +6073,83 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C10" s="12"/>
       <c r="D10" s="57" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C11" s="12"/>
       <c r="D11" s="56" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C12" s="12"/>
       <c r="D12" s="51" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C13" s="12"/>
       <c r="D13" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E13" s="105" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C14" s="12"/>
       <c r="D14" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E14" s="105" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C15" s="12"/>
       <c r="D15" s="61" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E15" s="106" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="3:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C18" s="12"/>
       <c r="D18" s="135" t="s">
-        <v>373</v>
+        <v>508</v>
       </c>
       <c r="E18" s="136"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C19" s="12"/>
       <c r="D19" s="51" t="s">
         <v>61</v>
@@ -6150,47 +6159,47 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="3:6" ht="41.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" ht="42" x14ac:dyDescent="0.35">
       <c r="C20" s="12"/>
       <c r="D20" s="76">
         <v>1</v>
       </c>
       <c r="E20" s="111" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="3:6" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" ht="28.2" x14ac:dyDescent="0.35">
       <c r="C21" s="12"/>
       <c r="D21" s="113">
         <v>2</v>
       </c>
       <c r="E21" s="114" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="3:6" ht="41.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" ht="42" x14ac:dyDescent="0.35">
       <c r="C22" s="12"/>
       <c r="D22" s="113">
         <v>3</v>
       </c>
       <c r="E22" s="114" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="3:6" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" ht="28.2" x14ac:dyDescent="0.35">
       <c r="C23" s="12"/>
       <c r="D23" s="112">
         <v>4</v>
       </c>
       <c r="E23" s="111" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -6203,14 +6212,14 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G1" location="'Rating Algorithm'!A17" display="Rating Algorithm'!A17"/>
+    <hyperlink ref="G1" location="'Rating Algorithm'!A17" display="Rating Algorithm'!A17" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
@@ -6218,28 +6227,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H1" s="108" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -6247,17 +6256,17 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="129" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D6" s="129"/>
       <c r="E6" s="129"/>
       <c r="F6" s="129"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="109" t="s">
         <v>65</v>
@@ -6273,7 +6282,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
         <v>65</v>
@@ -6289,7 +6298,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>77</v>
@@ -6303,7 +6312,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="5" t="s">
         <v>79</v>
@@ -6317,7 +6326,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
         <v>81</v>
@@ -6329,7 +6338,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>77</v>
@@ -6343,7 +6352,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
         <v>79</v>
@@ -6357,7 +6366,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
         <v>81</v>
@@ -6369,7 +6378,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>77</v>
@@ -6378,12 +6387,12 @@
         <v>78</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>79</v>
@@ -6393,11 +6402,11 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="7" t="s">
         <v>81</v>
@@ -6409,7 +6418,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -6422,14 +6431,14 @@
     <mergeCell ref="C6:F6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H1" location="'Rating Algorithm'!A10" display="'Rating Algorithm'!A10"/>
+    <hyperlink ref="H1" location="'Rating Algorithm'!A10" display="'Rating Algorithm'!A10" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
@@ -6437,39 +6446,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.90625" style="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B6" s="17"/>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
         <v>1</v>
@@ -6480,7 +6489,7 @@
       <c r="E7" s="117"/>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="C8" s="15" t="s">
         <v>1</v>
@@ -6491,20 +6500,20 @@
       <c r="E8" s="118"/>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
       <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="118" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="17"/>
       <c r="C10" s="15" t="s">
         <v>16</v>
@@ -6517,7 +6526,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="17"/>
       <c r="C11" s="15" t="s">
         <v>20</v>
@@ -6530,7 +6539,7 @@
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="17"/>
       <c r="C12" s="15" t="s">
         <v>2</v>
@@ -6541,7 +6550,7 @@
       <c r="E12" s="118"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
       <c r="C13" s="16" t="s">
         <v>3</v>
@@ -6552,30 +6561,30 @@
       <c r="E13" s="120"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="C16" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="C17" s="14" t="s">
         <v>5</v>
@@ -6586,7 +6595,7 @@
       <c r="E17" s="117"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="15" t="s">
         <v>7</v>
@@ -6600,7 +6609,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="96"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="15" t="s">
         <v>7</v>
@@ -6614,7 +6623,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="96"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="15" t="s">
         <v>7</v>
@@ -6628,7 +6637,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="96"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="C21" s="15" t="s">
         <v>7</v>
@@ -6642,7 +6651,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="96"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="C22" s="15" t="s">
         <v>7</v>
@@ -6656,20 +6665,20 @@
       <c r="F22" s="17"/>
       <c r="G22" s="97"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="118">
         <v>1E-4</v>
       </c>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="C24" s="15" t="s">
         <v>7</v>
@@ -6682,56 +6691,56 @@
       </c>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="C25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E25" s="118">
         <v>0</v>
       </c>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E26" s="120">
         <v>0</v>
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B29" s="17"/>
       <c r="C29" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
       <c r="C30" s="14" t="s">
         <v>5</v>
@@ -6742,7 +6751,7 @@
       <c r="E30" s="117"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
       <c r="C31" s="15" t="s">
         <v>9</v>
@@ -6755,7 +6764,7 @@
       </c>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="17"/>
       <c r="C32" s="15" t="s">
         <v>35</v>
@@ -6768,39 +6777,39 @@
       </c>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="17"/>
       <c r="C33" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E33" s="118" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="96" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
       <c r="C34" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="E34" s="118" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="96" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
       <c r="C35" s="15" t="s">
         <v>9</v>
@@ -6813,7 +6822,7 @@
       </c>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="15" t="s">
         <v>9</v>
@@ -6822,11 +6831,11 @@
         <v>51</v>
       </c>
       <c r="E36" s="119" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
       <c r="C37" s="15" t="s">
         <v>35</v>
@@ -6839,7 +6848,7 @@
       </c>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="17"/>
       <c r="C38" s="15" t="s">
         <v>47</v>
@@ -6852,7 +6861,7 @@
       </c>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="17"/>
       <c r="C39" s="15" t="s">
         <v>9</v>
@@ -6865,7 +6874,7 @@
       </c>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="17"/>
       <c r="C40" s="15" t="s">
         <v>9</v>
@@ -6878,7 +6887,7 @@
       </c>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="17"/>
       <c r="C41" s="15" t="s">
         <v>9</v>
@@ -6891,7 +6900,7 @@
       </c>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="17"/>
       <c r="C42" s="15" t="s">
         <v>9</v>
@@ -6904,7 +6913,7 @@
       </c>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="17"/>
       <c r="C43" s="15" t="s">
         <v>9</v>
@@ -6917,7 +6926,7 @@
       </c>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="17"/>
       <c r="C44" s="15" t="s">
         <v>9</v>
@@ -6930,7 +6939,7 @@
       </c>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="17"/>
       <c r="C45" s="15" t="s">
         <v>9</v>
@@ -6943,7 +6952,7 @@
       </c>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="17"/>
       <c r="C46" s="15" t="s">
         <v>9</v>
@@ -6952,11 +6961,11 @@
         <v>59</v>
       </c>
       <c r="E46" s="119" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="17"/>
       <c r="C47" s="15" t="s">
         <v>9</v>
@@ -6965,11 +6974,11 @@
         <v>60</v>
       </c>
       <c r="E47" s="119" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="17"/>
       <c r="C48" s="15" t="s">
         <v>9</v>
@@ -6982,7 +6991,7 @@
       </c>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="17"/>
       <c r="C49" s="15" t="s">
         <v>9</v>
@@ -6995,7 +7004,7 @@
       </c>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="17"/>
       <c r="C50" s="16" t="s">
         <v>9</v>
@@ -7008,7 +7017,7 @@
       </c>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -7027,7 +7036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
@@ -7035,165 +7044,165 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="2:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="17"/>
       <c r="C6" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="17"/>
       <c r="C7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="C8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="17"/>
       <c r="C11" s="23" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="17"/>
       <c r="C12" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
       <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
       <c r="C14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="C15" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="C17" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="C21" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="C24" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="C25" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="C27" s="25" t="s">
         <v>36</v>
@@ -7203,24 +7212,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
       <c r="C30" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
       <c r="C31" s="24" t="s">
         <v>150</v>
@@ -7230,111 +7239,111 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="17"/>
       <c r="C32" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="17"/>
       <c r="C33" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="23" t="s">
         <v>181</v>
       </c>
       <c r="D36" s="17"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
       <c r="C37" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="17"/>
       <c r="C38" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="17"/>
       <c r="C39" s="26" t="s">
         <v>135</v>
       </c>
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="17"/>
       <c r="C40" s="26" t="s">
         <v>148</v>
       </c>
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="17"/>
       <c r="C41" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="17"/>
       <c r="C44" s="23" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="17"/>
       <c r="C45" s="26" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="17"/>
       <c r="C46" s="26" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="17"/>
       <c r="C47" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -7346,7 +7355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -7354,26 +7363,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="45.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="122" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C3" s="22"/>
       <c r="F3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -7381,19 +7390,19 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B6" s="17"/>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="28"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="17"/>
       <c r="C7" s="29" t="s">
         <v>12</v>
@@ -7403,11 +7412,11 @@
         <v>101</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="C8" s="30" t="s">
         <v>13</v>
@@ -7417,14 +7426,14 @@
         <v>100</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
       <c r="C9" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="42" t="s">
@@ -7435,7 +7444,7 @@
       </c>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="17"/>
       <c r="C10" s="30" t="s">
         <v>17</v>
@@ -7449,7 +7458,7 @@
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="17"/>
       <c r="C11" s="30" t="s">
         <v>21</v>
@@ -7463,7 +7472,7 @@
       </c>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="17"/>
       <c r="C12" s="30" t="s">
         <v>15</v>
@@ -7479,7 +7488,7 @@
       </c>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
       <c r="C13" s="32" t="s">
         <v>4</v>
@@ -7495,7 +7504,7 @@
       </c>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="28"/>
@@ -7503,7 +7512,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="28"/>
@@ -7511,17 +7520,17 @@
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="29" t="s">
@@ -7535,145 +7544,145 @@
       </c>
       <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>98</v>
       </c>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F19" s="35">
         <v>3323037</v>
       </c>
       <c r="G19" s="28"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F20" s="35">
         <v>7985183</v>
       </c>
       <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="30" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="F21" s="35">
         <v>19394903</v>
       </c>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F22" s="35">
         <v>11460784</v>
       </c>
       <c r="G22" s="28"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F23" s="35">
         <v>7121436</v>
       </c>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="F24" s="35">
         <v>61834517</v>
       </c>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F25" s="35">
         <v>2765741</v>
       </c>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>232</v>
       </c>
       <c r="F26" s="35">
         <v>1057541</v>
       </c>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="28"/>
@@ -7681,7 +7690,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="28"/>
@@ -7689,17 +7698,17 @@
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="152" t="s">
+      <c r="D30" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="153"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="154"/>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="29" t="s">
@@ -7713,265 +7722,265 @@
       </c>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="30" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="30" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="30" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="28"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="28"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="30" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="30" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="28"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="30" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="28"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="30" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="30" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="30" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="30" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="28"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="30" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="28"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="30" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="28"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="30" t="s">
         <v>59</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="28"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="30" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="28"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="28"/>
     </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="30" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="28"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -7991,7 +8000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -7999,49 +8008,49 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="135" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="D6" s="136"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="57" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="57" t="s">
         <v>111</v>
@@ -8050,7 +8059,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="45" t="s">
         <v>112</v>
@@ -8061,54 +8070,54 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="61" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="137" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="D13" s="138"/>
       <c r="E13" s="138"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="57" t="s">
         <v>95</v>
@@ -8117,7 +8126,7 @@
       <c r="E15" s="57"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="45" t="s">
         <v>103</v>
@@ -8126,11 +8135,11 @@
         <v>14</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="104">
         <v>2010</v>
@@ -8139,45 +8148,45 @@
         <v>28</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="139" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="D20" s="139"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="57" t="s">
         <v>110</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="C22" s="57" t="s">
         <v>111</v>
@@ -8186,63 +8195,63 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="C23" s="45" t="s">
         <v>112</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="12"/>
       <c r="C24" s="104" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="C27" s="139" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="D27" s="139"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="C28" s="57" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="57" t="s">
         <v>96</v>
@@ -8251,63 +8260,63 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="C30" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="C31" s="104">
         <v>2010</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="12"/>
       <c r="C34" s="139" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="D34" s="139"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
       <c r="C35" s="57" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36" s="57" t="s">
         <v>96</v>
@@ -8316,29 +8325,29 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="C37" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="C38" s="104">
         <v>2010</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -8359,73 +8368,75 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:D74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="23.6640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G1" s="108" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="49"/>
     </row>
-    <row r="4" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="141" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="135" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D9" s="136"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="51" t="s">
         <v>117</v>
@@ -8436,7 +8447,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="46" t="s">
         <v>119</v>
@@ -8447,7 +8458,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="46" t="s">
         <v>120</v>
@@ -8458,7 +8469,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="46" t="s">
         <v>129</v>
@@ -8469,7 +8480,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="61" t="s">
         <v>121</v>
@@ -8480,30 +8491,30 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="135" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D17" s="136"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="51" t="s">
         <v>126</v>
@@ -8514,7 +8525,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="46" t="s">
         <v>128</v>
@@ -8525,7 +8536,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="46" t="s">
         <v>130</v>
@@ -8536,7 +8547,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="46" t="s">
         <v>131</v>
@@ -8547,7 +8558,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="C22" s="61" t="s">
         <v>132</v>
@@ -8558,30 +8569,30 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="C25" s="135" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D25" s="136"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="51" t="s">
         <v>135</v>
@@ -8592,7 +8603,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="C27" s="46" t="s">
         <v>137</v>
@@ -8603,7 +8614,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="C28" s="46" t="s">
         <v>138</v>
@@ -8614,7 +8625,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="46" t="s">
         <v>139</v>
@@ -8625,7 +8636,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="C30" s="61" t="s">
         <v>140</v>
@@ -8636,30 +8647,30 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
-      <c r="C33" s="155" t="s">
-        <v>503</v>
-      </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
+      <c r="C33" s="144" t="s">
+        <v>488</v>
+      </c>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="12"/>
       <c r="C34" s="51" t="s">
         <v>14</v>
@@ -8672,7 +8683,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
       <c r="C35" s="123" t="s">
         <v>28</v>
@@ -8685,7 +8696,7 @@
       </c>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36" s="123"/>
       <c r="D36" s="46" t="s">
@@ -8696,7 +8707,7 @@
       </c>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="C37" s="123"/>
       <c r="D37" s="46" t="s">
@@ -8707,7 +8718,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="C38" s="140"/>
       <c r="D38" s="60" t="s">
@@ -8718,7 +8729,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="143" t="s">
         <v>151</v>
@@ -8731,7 +8742,7 @@
       </c>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="C40" s="123"/>
       <c r="D40" s="46" t="s">
@@ -8742,7 +8753,7 @@
       </c>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="C41" s="123"/>
       <c r="D41" s="46" t="s">
@@ -8753,7 +8764,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="12"/>
       <c r="C42" s="140"/>
       <c r="D42" s="60" t="s">
@@ -8764,7 +8775,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="12"/>
       <c r="C43" s="143" t="s">
         <v>23</v>
@@ -8777,7 +8788,7 @@
       </c>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="12"/>
       <c r="C44" s="123"/>
       <c r="D44" s="46" t="s">
@@ -8788,7 +8799,7 @@
       </c>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="12"/>
       <c r="C45" s="123"/>
       <c r="D45" s="46" t="s">
@@ -8799,7 +8810,7 @@
       </c>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="12"/>
       <c r="C46" s="140"/>
       <c r="D46" s="60" t="s">
@@ -8810,7 +8821,7 @@
       </c>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
       <c r="C47" s="123" t="s">
         <v>156</v>
@@ -8823,7 +8834,7 @@
       </c>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="12"/>
       <c r="C48" s="123"/>
       <c r="D48" s="46" t="s">
@@ -8834,7 +8845,7 @@
       </c>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="12"/>
       <c r="C49" s="123"/>
       <c r="D49" s="46" t="s">
@@ -8845,7 +8856,7 @@
       </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="12"/>
       <c r="C50" s="140"/>
       <c r="D50" s="60" t="s">
@@ -8856,7 +8867,7 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="12"/>
       <c r="C51" s="123"/>
       <c r="D51" s="46" t="s">
@@ -8867,7 +8878,7 @@
       </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="12"/>
       <c r="C52" s="123"/>
       <c r="D52" s="46" t="s">
@@ -8878,7 +8889,7 @@
       </c>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="12"/>
       <c r="C53" s="123"/>
       <c r="D53" s="46" t="s">
@@ -8889,7 +8900,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="140"/>
       <c r="D54" s="60" t="s">
@@ -8900,30 +8911,30 @@
       </c>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B57" s="12"/>
       <c r="C57" s="135" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D57" s="136"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="12"/>
       <c r="C58" s="51" t="s">
         <v>144</v>
@@ -8934,7 +8945,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="12"/>
       <c r="C59" s="46" t="s">
         <v>146</v>
@@ -8945,10 +8956,10 @@
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="12"/>
       <c r="C60" s="46" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D60" s="53">
         <v>2</v>
@@ -8956,10 +8967,10 @@
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="12"/>
       <c r="C61" s="46" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="D61" s="53">
         <v>3</v>
@@ -8967,7 +8978,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="12"/>
       <c r="C62" s="61" t="s">
         <v>147</v>
@@ -8978,30 +8989,30 @@
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B65" s="12"/>
       <c r="C65" s="135" t="s">
-        <v>182</v>
+        <v>490</v>
       </c>
       <c r="D65" s="136"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="12"/>
       <c r="C66" s="51" t="s">
         <v>170</v>
@@ -9012,7 +9023,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="12"/>
       <c r="C67" s="46" t="s">
         <v>117</v>
@@ -9023,7 +9034,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="12"/>
       <c r="C68" s="46" t="s">
         <v>126</v>
@@ -9034,7 +9045,7 @@
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="12"/>
       <c r="C69" s="46" t="s">
         <v>135</v>
@@ -9045,7 +9056,7 @@
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="12"/>
       <c r="C70" s="46" t="s">
         <v>148</v>
@@ -9056,7 +9067,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="12"/>
       <c r="C71" s="61" t="s">
         <v>144</v>
@@ -9067,44 +9078,44 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B74" s="12"/>
       <c r="C74" s="135" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="D74" s="136"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="12"/>
       <c r="C75" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="12"/>
       <c r="C76" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="53">
         <v>1</v>
@@ -9112,10 +9123,10 @@
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="12"/>
       <c r="C77" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="53">
         <v>2</v>
@@ -9123,10 +9134,10 @@
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="12"/>
       <c r="C78" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D78" s="53">
         <v>3</v>
@@ -9134,10 +9145,10 @@
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
       <c r="C79" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="54">
         <v>4</v>
@@ -9145,7 +9156,7 @@
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -9169,49 +9180,51 @@
     <mergeCell ref="C33:E33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G1" location="'Rating Algorithm'!A21" display="'Rating Algorithm'!A21"/>
+    <hyperlink ref="G1" location="'Rating Algorithm'!A21" display="'Rating Algorithm'!A21" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:D51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K1" s="108" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -9222,10 +9235,10 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="141" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="12"/>
@@ -9235,7 +9248,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -9246,10 +9259,10 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="135" t="s">
-        <v>228</v>
+        <v>491</v>
       </c>
       <c r="D8" s="136"/>
       <c r="E8" s="12"/>
@@ -9259,13 +9272,13 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -9274,12 +9287,12 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="147">
         <v>3</v>
       </c>
       <c r="E10" s="12"/>
@@ -9289,12 +9302,12 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="146"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -9302,12 +9315,12 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="145"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -9315,7 +9328,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="61"/>
       <c r="D13" s="54">
@@ -9328,7 +9341,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -9339,7 +9352,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -9350,10 +9363,10 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="135" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D16" s="135"/>
       <c r="E16" s="135"/>
@@ -9363,35 +9376,35 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="51" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>229</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>231</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="123" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="144">
+        <v>235</v>
+      </c>
+      <c r="F18" s="145">
         <v>3</v>
       </c>
       <c r="G18" s="12"/>
@@ -9399,76 +9412,76 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="76"/>
       <c r="D19" s="60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E19" s="140"/>
-      <c r="F19" s="144"/>
+      <c r="F19" s="145"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="77" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="143" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="144"/>
+        <v>237</v>
+      </c>
+      <c r="F20" s="145"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="76"/>
       <c r="D21" s="60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E21" s="140"/>
-      <c r="F21" s="144"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="C22" s="44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="123" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="144"/>
+        <v>238</v>
+      </c>
+      <c r="F22" s="145"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="C23" s="76"/>
       <c r="D23" s="60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E23" s="140"/>
-      <c r="F23" s="145"/>
+      <c r="F23" s="146"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="12"/>
       <c r="C24" s="76"/>
       <c r="D24" s="60"/>
@@ -9481,7 +9494,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -9492,7 +9505,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -9503,10 +9516,10 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="C27" s="135" t="s">
-        <v>251</v>
+        <v>493</v>
       </c>
       <c r="D27" s="136"/>
       <c r="E27" s="12"/>
@@ -9516,13 +9529,13 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="C28" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="52" t="s">
         <v>249</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>253</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -9531,7 +9544,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="46" t="s">
         <v>11</v>
@@ -9546,7 +9559,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="C30" s="60" t="s">
         <v>10</v>
@@ -9561,7 +9574,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -9572,7 +9585,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -9583,10 +9596,10 @@
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
       <c r="C33" s="135" t="s">
-        <v>248</v>
+        <v>494</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="12"/>
@@ -9596,13 +9609,13 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="2:10" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="28.2" x14ac:dyDescent="0.35">
       <c r="B34" s="12"/>
       <c r="C34" s="83" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -9611,7 +9624,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
       <c r="C35" s="46" t="s">
         <v>37</v>
@@ -9626,7 +9639,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36" s="46" t="s">
         <v>108</v>
@@ -9641,7 +9654,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="C37" s="60" t="s">
         <v>36</v>
@@ -9656,7 +9669,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -9667,7 +9680,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -9678,10 +9691,10 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="C40" s="135" t="s">
-        <v>294</v>
+        <v>495</v>
       </c>
       <c r="D40" s="135"/>
       <c r="E40" s="135"/>
@@ -9691,48 +9704,48 @@
       <c r="I40" s="135"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="C41" s="78" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E41" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="F41" s="147" t="s">
-        <v>257</v>
-      </c>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+        <v>252</v>
+      </c>
+      <c r="F41" s="148" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="28.2" x14ac:dyDescent="0.35">
       <c r="B42" s="12"/>
       <c r="C42" s="83" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E42" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="F42" s="148" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
+        <v>252</v>
+      </c>
+      <c r="F42" s="149" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="12"/>
       <c r="C43" s="78" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="86"/>
@@ -9743,20 +9756,20 @@
         <v>2</v>
       </c>
       <c r="H43" s="95" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I43" s="92">
         <v>1</v>
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="12"/>
       <c r="C44" s="78" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E44" s="86"/>
       <c r="F44" s="93">
@@ -9773,10 +9786,10 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="12"/>
       <c r="C45" s="78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="46"/>
@@ -9794,13 +9807,13 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="12"/>
       <c r="C46" s="60" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E46" s="46">
         <v>1</v>
@@ -9813,13 +9826,13 @@
       <c r="I46" s="57"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="28.2" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
       <c r="C47" s="88" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D47" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E47" s="46">
         <v>1</v>
@@ -9832,13 +9845,13 @@
       <c r="I47" s="57"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="12"/>
       <c r="C48" s="60" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E48" s="46">
         <v>1</v>
@@ -9851,7 +9864,7 @@
       <c r="I48" s="57"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -9862,7 +9875,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -9873,10 +9886,10 @@
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B51" s="12"/>
       <c r="C51" s="135" t="s">
-        <v>269</v>
+        <v>496</v>
       </c>
       <c r="D51" s="136"/>
       <c r="E51" s="12"/>
@@ -9886,13 +9899,13 @@
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="12"/>
       <c r="C52" s="83" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -9901,13 +9914,13 @@
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="12"/>
       <c r="C53" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="98" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -9916,7 +9929,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="60" t="s">
         <v>19</v>
@@ -9931,7 +9944,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -9960,14 +9973,14 @@
     <mergeCell ref="D10:D12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K1" location="'Rating Algorithm'!A48" display="'Rating Algorithm'!A48"/>
+    <hyperlink ref="K1" location="'Rating Algorithm'!A48" display="'Rating Algorithm'!A48" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -9975,21 +9988,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="79" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -9997,55 +10010,55 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="139" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="D6" s="139"/>
       <c r="E6" s="139"/>
       <c r="F6" s="139"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="45" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="85">
         <v>100</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E9" s="85">
         <v>50000</v>
@@ -10055,13 +10068,13 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="85">
         <v>100</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E10" s="85">
         <v>60000</v>
@@ -10071,13 +10084,13 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="85">
         <v>100</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" s="85">
         <v>50</v>
@@ -10087,7 +10100,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="85">
         <v>300</v>
@@ -10103,7 +10116,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="104">
         <v>300</v>
@@ -10119,7 +10132,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -10127,7 +10140,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -10135,29 +10148,29 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="139" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="D16" s="139"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="57" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="42" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="57" t="s">
         <v>96</v>
@@ -10167,19 +10180,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="104">
         <v>2010</v>
@@ -10191,7 +10204,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -10209,35 +10222,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:E43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.54296875" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O1" s="108" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C3" s="49"/>
     </row>
-    <row r="4" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -10252,10 +10267,10 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="141" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="12"/>
@@ -10269,7 +10284,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -10284,10 +10299,10 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="135" t="s">
-        <v>308</v>
+        <v>497</v>
       </c>
       <c r="D8" s="136"/>
       <c r="E8" s="12"/>
@@ -10301,13 +10316,13 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="51" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -10320,7 +10335,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="46" t="s">
         <v>11</v>
@@ -10339,7 +10354,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="60" t="s">
         <v>10</v>
@@ -10358,7 +10373,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -10373,7 +10388,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -10388,10 +10403,10 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="135" t="s">
-        <v>313</v>
+        <v>498</v>
       </c>
       <c r="D14" s="136"/>
       <c r="E14" s="12"/>
@@ -10405,13 +10420,13 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="83" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -10424,7 +10439,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="46" t="s">
         <v>37</v>
@@ -10443,7 +10458,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="46" t="s">
         <v>108</v>
@@ -10462,7 +10477,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="60" t="s">
         <v>36</v>
@@ -10481,7 +10496,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -10496,7 +10511,7 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -10511,10 +10526,10 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="135" t="s">
-        <v>314</v>
+        <v>499</v>
       </c>
       <c r="D21" s="136"/>
       <c r="E21" s="12"/>
@@ -10528,13 +10543,13 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="2:14" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="28.2" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="C22" s="83" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -10547,7 +10562,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="C23" s="46" t="s">
         <v>150</v>
@@ -10566,7 +10581,7 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="12"/>
       <c r="C24" s="46" t="s">
         <v>49</v>
@@ -10585,7 +10600,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="C25" s="60" t="s">
         <v>50</v>
@@ -10604,7 +10619,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -10619,7 +10634,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -10634,10 +10649,10 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="C28" s="135" t="s">
-        <v>318</v>
+        <v>500</v>
       </c>
       <c r="D28" s="135"/>
       <c r="E28" s="135"/>
@@ -10651,92 +10666,92 @@
       <c r="M28" s="135"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="78" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="F29" s="147" t="s">
-        <v>257</v>
-      </c>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
+        <v>252</v>
+      </c>
+      <c r="F29" s="148" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="C30" s="83" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E30" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="F30" s="148" t="s">
-        <v>320</v>
-      </c>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
+        <v>252</v>
+      </c>
+      <c r="F30" s="149" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="C31" s="78" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D31" s="87"/>
       <c r="E31" s="86"/>
       <c r="F31" s="100" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G31" s="101">
         <v>4</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="I31" s="92">
         <v>3</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="K31" s="92">
         <v>2</v>
       </c>
       <c r="L31" s="102" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M31" s="92">
         <v>1</v>
       </c>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="12"/>
       <c r="C32" s="78" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D32" s="86" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E32" s="86"/>
       <c r="F32" s="93">
@@ -10765,10 +10780,10 @@
       </c>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
       <c r="C33" s="78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D33" s="87"/>
       <c r="E33" s="46"/>
@@ -10798,13 +10813,13 @@
       </c>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="12"/>
       <c r="C34" s="60" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E34" s="46">
         <v>1</v>
@@ -10821,13 +10836,13 @@
       <c r="M34" s="57"/>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
       <c r="C35" s="88" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E35" s="46">
         <v>1</v>
@@ -10844,13 +10859,13 @@
       <c r="M35" s="57"/>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" ht="28.2" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36" s="60" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E36" s="46">
         <v>1</v>
@@ -10867,13 +10882,13 @@
       <c r="M36" s="57"/>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="C37" s="60" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E37" s="46">
         <v>1</v>
@@ -10890,13 +10905,13 @@
       <c r="M37" s="57"/>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="C38" s="60" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E38" s="46">
         <v>1</v>
@@ -10913,13 +10928,13 @@
       <c r="M38" s="57"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="60" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E39" s="46">
         <v>1</v>
@@ -10936,13 +10951,13 @@
       <c r="M39" s="57"/>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="C40" s="60" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="89" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E40" s="46">
         <v>1</v>
@@ -10959,7 +10974,7 @@
       <c r="M40" s="57"/>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -10974,7 +10989,7 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -10989,10 +11004,10 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B43" s="12"/>
       <c r="C43" s="135" t="s">
-        <v>325</v>
+        <v>501</v>
       </c>
       <c r="D43" s="135"/>
       <c r="E43" s="135"/>
@@ -11006,16 +11021,16 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="12"/>
       <c r="C44" s="51" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -11027,14 +11042,14 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="12"/>
       <c r="C45" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="46"/>
-      <c r="E45" s="144" t="s">
-        <v>272</v>
+      <c r="E45" s="145" t="s">
+        <v>267</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -11046,13 +11061,13 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" s="12"/>
       <c r="C46" s="46"/>
       <c r="D46" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="145"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -11063,7 +11078,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
       <c r="C47" s="88"/>
       <c r="D47" s="88"/>
@@ -11080,7 +11095,7 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -11097,8 +11112,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="E45:E46"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C14:D14"/>
@@ -11106,16 +11119,18 @@
     <mergeCell ref="F30:M30"/>
     <mergeCell ref="F29:M29"/>
     <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="E45:E46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O1" location="'Rating Algorithm'!A66" display="'Rating Algorithm'!A66"/>
+    <hyperlink ref="O1" location="'Rating Algorithm'!A66" display="'Rating Algorithm'!A66" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -11123,54 +11138,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="121" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="139" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="D6" s="139"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="57" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="45" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="85" t="s">
         <v>150</v>
@@ -11180,7 +11195,7 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="85" t="s">
         <v>49</v>
@@ -11190,7 +11205,7 @@
       </c>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="104" t="s">
         <v>50</v>
@@ -11200,37 +11215,37 @@
       </c>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="139" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="D14" s="139"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="57" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="57" t="s">
         <v>96</v>
@@ -11238,17 +11253,17 @@
       <c r="D16" s="57"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="104">
         <v>2010</v>
@@ -11258,7 +11273,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -11274,71 +11289,73 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F1" s="108" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C3" s="49"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="141" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="135" t="s">
-        <v>346</v>
+        <v>503</v>
       </c>
       <c r="D8" s="136"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="51" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="46" t="s">
         <v>11</v>
@@ -11348,7 +11365,7 @@
       </c>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="60" t="s">
         <v>10</v>
@@ -11358,37 +11375,37 @@
       </c>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="135" t="s">
-        <v>349</v>
+        <v>504</v>
       </c>
       <c r="D14" s="136"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="51" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="46" t="s">
         <v>11</v>
@@ -11398,7 +11415,7 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="60" t="s">
         <v>10</v>
@@ -11408,37 +11425,37 @@
       </c>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="135" t="s">
-        <v>352</v>
+        <v>505</v>
       </c>
       <c r="D20" s="136"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="51" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="C22" s="46" t="s">
         <v>11</v>
@@ -11448,7 +11465,7 @@
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="C23" s="60" t="s">
         <v>10</v>
@@ -11458,7 +11475,7 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -11472,43 +11489,45 @@
     <mergeCell ref="C6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Rating Algorithm'!A83" display="'Rating Algorithm'!A83"/>
+    <hyperlink ref="F1" location="'Rating Algorithm'!A83" display="'Rating Algorithm'!A83" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I1" s="108" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C3" s="49"/>
     </row>
-    <row r="4" spans="2:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -11516,17 +11535,17 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="12"/>
       <c r="D6" s="141" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="E6" s="141"/>
       <c r="F6" s="141"/>
       <c r="G6" s="141"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -11534,65 +11553,65 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C8" s="12"/>
       <c r="D8" s="135" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E8" s="136"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C9" s="12"/>
       <c r="D9" s="51" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C10" s="12"/>
       <c r="D10" s="46" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C11" s="12"/>
       <c r="D11" s="46" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C12" s="12"/>
       <c r="D12" s="61" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -11600,7 +11619,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -11608,465 +11627,465 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C15" s="12"/>
       <c r="D15" s="135" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E15" s="135"/>
       <c r="F15" s="135"/>
       <c r="G15" s="135"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C16" s="12"/>
       <c r="D16" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C17" s="12"/>
       <c r="D17" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C18" s="12"/>
       <c r="D18" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C19" s="12"/>
       <c r="D19" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C20" s="12"/>
       <c r="D20" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C21" s="12"/>
       <c r="D21" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C22" s="12"/>
       <c r="D22" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C23" s="12"/>
       <c r="D23" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C24" s="12"/>
       <c r="D24" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C25" s="12"/>
       <c r="D25" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G25" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C26" s="12"/>
       <c r="D26" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C27" s="12"/>
       <c r="D27" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C28" s="12"/>
       <c r="D28" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C29" s="12"/>
       <c r="D29" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C30" s="12"/>
       <c r="D30" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C31" s="12"/>
       <c r="D31" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C32" s="12"/>
       <c r="D32" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C33" s="12"/>
       <c r="D33" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C34" s="12"/>
       <c r="D34" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C35" s="12"/>
       <c r="D35" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G35" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C36" s="12"/>
       <c r="D36" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C37" s="12"/>
       <c r="D37" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C38" s="12"/>
       <c r="D38" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C39" s="12"/>
       <c r="D39" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C40" s="12"/>
       <c r="D40" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G40" s="65" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C41" s="12"/>
       <c r="D41" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C42" s="12"/>
       <c r="D42" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C43" s="12"/>
       <c r="D43" s="61" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G43" s="66" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -12081,7 +12100,7 @@
     <mergeCell ref="D6:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="'Rating Algorithm'!A16" display="'Rating Algorithm'!A16"/>
+    <hyperlink ref="I1" location="'Rating Algorithm'!A16" display="'Rating Algorithm'!A16" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
